--- a/Excel/048_Como+trabalhar+com+Data+e+Hora.xlsx
+++ b/Excel/048_Como+trabalhar+com+Data+e+Hora.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Curso de Excel\Novas Aulas fev-2022\Funções Data e Hora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152411E9-E23B-4C8D-BF11-8698DDE8B03F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92F405C-7ED3-460C-A466-D76DF4B8AF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D135085-162F-4F6A-83EE-95534B59CC74}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="1" xr2:uid="{1D135085-162F-4F6A-83EE-95534B59CC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor" sheetId="4" r:id="rId1"/>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,14 +253,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -273,7 +270,9 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -283,8 +282,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,64 +603,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78223B1C-2916-415F-94CE-8640CAC99758}">
   <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.23046875" customWidth="1"/>
+    <col min="4" max="4" width="27.23046875" customWidth="1"/>
+    <col min="6" max="6" width="28.69140625" customWidth="1"/>
+    <col min="7" max="7" width="17.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="2:10" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:10" s="2" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="2:10" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="2:10" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="2:10" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="20" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="2:10" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="2:10" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="2:10" s="2" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
+      <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -672,11 +669,11 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="2:10" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="2:10" s="2" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
+      <c r="B6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -685,12 +682,12 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
@@ -698,182 +695,182 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="F11" s="22" t="s">
+      <c r="C11" s="23"/>
+      <c r="F11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="8">
         <v>44562</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="F12" s="13" t="s">
+      <c r="D12" s="19"/>
+      <c r="F12" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="8">
         <v>44589</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14"/>
       <c r="C14" s="10">
         <f>C13-C12</f>
         <v>27</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9">
         <f>G13/G12</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15"/>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <v>0.75</v>
       </c>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16"/>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9">
         <v>1</v>
       </c>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="22" t="s">
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="22"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="23"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="8">
         <v>44805</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <v>8</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <f>C18+C19</f>
         <v>44813</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21"/>
       <c r="F21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <f>G20-G19</f>
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="F23" s="22" t="s">
+      <c r="C23" s="23"/>
+      <c r="F23" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>25335</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="16">
         <v>44713.333333333336</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>43963</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <v>44715.333333333336</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="17">
         <f>G25-G24</f>
         <v>2</v>
       </c>
@@ -898,62 +895,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81502B5D-3ED7-4282-9A3B-FAE7D2F70C28}">
   <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.23046875" customWidth="1"/>
+    <col min="4" max="4" width="27.23046875" customWidth="1"/>
+    <col min="6" max="6" width="28.69140625" customWidth="1"/>
+    <col min="7" max="7" width="17.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="2:10" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:10" s="2" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="2:10" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="2:10" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="2:10" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="20" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="2:10" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="2:10" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="2:10" s="2" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
+      <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -962,11 +961,11 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="2:10" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="2:10" s="2" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
+      <c r="B6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -975,12 +974,12 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
@@ -988,166 +987,183 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="F11" s="22" t="s">
+      <c r="C11" s="23"/>
+      <c r="F11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="8">
         <v>44562</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="8">
         <v>44589</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14"/>
-      <c r="C14" s="10"/>
-      <c r="F14" s="14" t="s">
+      <c r="C14" s="10">
+        <f>C13-C12</f>
+        <v>27</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9">
         <f>G13/G12</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15"/>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16"/>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="22" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="22"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="23"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="8">
         <v>44805</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <v>8</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="11">
+        <f>C18+C19</f>
+        <v>44813</v>
+      </c>
       <c r="F20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21"/>
       <c r="F21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
+      <c r="G21" s="15">
+        <f>G20-G19</f>
+        <v>0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="F23" s="22" t="s">
+      <c r="C23" s="23"/>
+      <c r="F23" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="11">
+        <v>14751</v>
+      </c>
       <c r="F24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="16">
         <v>44713.333333333336</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="11">
+        <v>44336</v>
+      </c>
       <c r="F25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <v>44715.333333333336</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="18"/>
+      <c r="G26" s="17">
+        <f>G25-G24</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
